--- a/InputFiles/TC12_Bento_Filter_Chemo-StandardAcWithTaxane.xlsx
+++ b/InputFiles/TC12_Bento_Filter_Chemo-StandardAcWithTaxane.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\Commons_Automation\InputFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohilz2\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16ACF4E6-1136-4E83-9486-24D55C43D460}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12E6260-D84D-427C-9202-0E41C5C302BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="startup" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>WebExcel</t>
   </si>
@@ -96,6 +96,72 @@
        d.pr_status AS `PR Status`,
        demo.age_at_index AS `Age (years)`,
 demo.survival_time AS `Survival (days)`</t>
+  </si>
+  <si>
+    <t>SamplesTab</t>
+  </si>
+  <si>
+    <t>FilesTab</t>
+  </si>
+  <si>
+    <t>MATCH (ss:study_subject)
+WITH COLLECT(ss.study_subject_id) AS all_subjects
+MATCH (samp:sample)
+MATCH (samp)-[:sample_of_study_subject]-&gt;(ss)
+MATCH (ss)-[:study_subject_of_study]-&gt;(s)-[:study_of_program]-&gt;(p)
+MATCH (samp)&lt;-[:file_of_sample]-(f)-[:file_of_laboratory_procedure]-&gt;(lp)
+MATCH (ss)&lt;-[:diagnosis_of_study_subject]-(d)
+MATCH (d)&lt;-[:tp_of_diagnosis]-(tp)
+WHERE tp.chemotherapy_regimen IN  ["standard AC followed by a taxane"]
+WITH
+    distinct lp,
+    toInteger(split(ss.study_subject_id,'-')[2]) AS subject_id_num,
+    collect(distinct f.file_id) AS files,
+    samp, ss, s, p, all_subjects
+RETURN
+ samp.sample_id AS `Sample ID`,
+            ss.study_subject_id AS `Case ID`,
+            p.program_acronym AS `Program Code`,
+            s.study_acronym AS `Arm`,
+            ss.disease_subtype AS `Diagnosis`,
+            samp.tissue_type AS `Tissue Type`,
+            samp.composition AS `Tissue Composition`,
+            samp.sample_anatomic_site AS `Sample Anatomic Site`,
+            samp.method_of_sample_procurement AS `Sample Procurement Method`</t>
+  </si>
+  <si>
+    <t>MATCH (f:file)--&gt;(parent)
+MATCH (f)-[:file_of_sample]-&gt;(samp)
+MATCH (samp)-[:sample_of_study_subject]-&gt;(ss)
+MATCH (ss)-[:study_subject_of_study]-&gt;(s)
+MATCH (s)-[:study_of_program]-&gt;(p)
+MATCH (d)-[:diagnosis_of_study_subject]-&gt;(ss)
+MATCH (tp)-[:tp_of_diagnosis]-&gt;(d)
+WHERE tp.chemotherapy_regimen IN  ["standard AC followed by a taxane"]
+WITH
+        f, parent,p, ss, d,tp, s, samp,
+        ['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
+        toInteger(floor(log(f.file_size)/log(1024))) as i,
+        2 as precision
+WITH
+        f, parent,p, ss, d,tp, s, samp,
+        f.file_size /(1024^i) AS value,
+        10^precision AS factor,
+        units[i] as unit
+WITH
+        f, parent,p, ss, d,tp, s, samp, unit,
+        round(factor * value)/factor AS size
+RETURN Distinct
+    f.file_name AS `File Name`,
+    head(labels(samp)) AS `Association`,
+    f.file_description AS `Description`,
+    f.file_format AS `File Format`,
+     CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS Size,
+    p.program_acronym AS `Program Code`,
+    s.study_acronym AS `Arm`,
+    ss.study_subject_id AS `Case ID`,
+    samp.sample_id AS `Sample ID`
+    order by f.file_name</t>
   </si>
 </sst>
 </file>
@@ -465,22 +531,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="75.85546875" customWidth="1"/>
-    <col min="3" max="3" width="60.42578125" customWidth="1"/>
-    <col min="4" max="4" width="70.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="75.88671875" customWidth="1"/>
+    <col min="3" max="3" width="60.44140625" customWidth="1"/>
+    <col min="4" max="4" width="70.33203125" customWidth="1"/>
     <col min="5" max="5" width="53" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -497,7 +563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="330" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -511,6 +577,40 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
         <v>7</v>
       </c>
     </row>
